--- a/src/main/resources/97-mall-swarm/mall-auth_structure.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-auth_structure.xlsx
@@ -115,7 +115,7 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken)</t>
+    <t>enhance(org.springframework.security.oauth2.common.OAuth2AccessToken,org.springframework.security.oauth2.provider.OAuth2Authentication)</t>
   </si>
   <si>
     <t>org.springframework.security.oauth2.common.OAuth2AccessToken</t>
